--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Part name</t>
   </si>
@@ -77,9 +81,6 @@
     <t>99R2970</t>
   </si>
   <si>
-    <t>newar</t>
-  </si>
-  <si>
     <t>coils and injectors</t>
   </si>
   <si>
@@ -96,38 +97,32 @@
   </si>
   <si>
     <t>Diodes</t>
+  </si>
+  <si>
+    <t>DACS</t>
+  </si>
+  <si>
+    <t>newark</t>
+  </si>
+  <si>
+    <t>MCP4901-E/P</t>
+  </si>
+  <si>
+    <t>for staged injector driving</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -143,6 +138,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +160,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -161,82 +168,365 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.68367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -253,8 +543,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" ht="24">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -263,168 +553,189 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" ht="24">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
         <v>6.39</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <f aca="false">SUM(D2:D2001)</f>
-        <v>139.47</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="I3" s="1">
+        <f>SUM(D2:D2001)</f>
+        <v>147.21000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
         <v>10.67</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
         <v>1.99</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
         <v>5.58</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
         <v>32.39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>3.56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
         <v>7.29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E11" s="0" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>27.45</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="D14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>3.5</v>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>7.74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="99R2970"/>
+    <hyperlink ref="B11" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>